--- a/Plan/Table/Live_Data/03.Character_table.xlsx
+++ b/Plan/Table/Live_Data/03.Character_table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC66EFCD-BAD2-4C3D-8C81-9086025EFFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94767B5-0CE6-471C-8610-D586A29AA03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="3735" windowWidth="15555" windowHeight="8175" xr2:uid="{AAB5ACFE-4743-4B66-82A5-27CF5B40D897}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9BCC6F0B-1F6F-4679-9575-E446E9FB32BC}"/>
   </bookViews>
   <sheets>
     <sheet name="03.Character_table" sheetId="1" r:id="rId1"/>
@@ -442,8 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DBEA1F-0B83-430C-B3D8-CFA972DB1692}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A62DB-2627-4189-993D-84801B226B02}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Plan/Table/Live_Data/03.Character_table.xlsx
+++ b/Plan/Table/Live_Data/03.Character_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94767B5-0CE6-471C-8610-D586A29AA03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F64D1BC-8006-4AF0-BD2C-5265DB308918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9BCC6F0B-1F6F-4679-9575-E446E9FB32BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{58FE55B7-60BD-4A26-9713-8EF75A0B576C}"/>
   </bookViews>
   <sheets>
     <sheet name="03.Character_table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,12 @@
     <t>tribe</t>
   </si>
   <si>
+    <t>chr_type</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>max_HP</t>
   </si>
   <si>
@@ -60,6 +66,48 @@
   </si>
   <si>
     <t>magic_armor</t>
+  </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>cri_dmg</t>
+  </si>
+  <si>
+    <t>attack_speed</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>add_dmg</t>
+  </si>
+  <si>
+    <t>dmg_reduction</t>
+  </si>
+  <si>
+    <t>aoe_range</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>start_item_group</t>
+  </si>
+  <si>
+    <t>start_trait_group</t>
   </si>
 </sst>
 </file>
@@ -442,16 +490,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A62DB-2627-4189-993D-84801B226B02}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C9CC5-1287-4B27-B8EF-8DE378CFF87D}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection sqref="A1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +525,56 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,19 +588,67 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>150</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>100</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -517,16 +662,64 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
       </c>
       <c r="H3">
         <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>150</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/03.Character_table.xlsx
+++ b/Plan/Table/Live_Data/03.Character_table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F64D1BC-8006-4AF0-BD2C-5265DB308918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07893C85-98DF-4340-8647-C4564DDE844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{58FE55B7-60BD-4A26-9713-8EF75A0B576C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B568FD5C-FFF8-4A33-933C-975EC4C3A8A9}"/>
   </bookViews>
   <sheets>
     <sheet name="03.Character_table" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C9CC5-1287-4B27-B8EF-8DE378CFF87D}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA873F-B343-4E83-B77F-D0B6D326CA67}">
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X1048576"/>
@@ -591,19 +590,19 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -653,10 +652,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -665,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>10</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -719,6 +718,1042 @@
         <v>0</v>
       </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>150</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>125</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>150</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5">
+        <v>100</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>150</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>150</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>150</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>100</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>150</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>110</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>150</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>100</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10">
+        <v>100</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>150</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11">
+        <v>100</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>110</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12">
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>125</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>150</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="R13">
+        <v>100</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>100</v>
+      </c>
+      <c r="V13">
+        <v>100</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>150</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>100</v>
+      </c>
+      <c r="V14">
+        <v>100</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>150</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>100</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>100</v>
+      </c>
+      <c r="V15">
+        <v>100</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>150</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="R16">
+        <v>100</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>100</v>
+      </c>
+      <c r="V16">
+        <v>100</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>150</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>100</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>100</v>
+      </c>
+      <c r="V17">
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>0</v>
       </c>
     </row>

--- a/Plan/Table/Live_Data/03.Character_table.xlsx
+++ b/Plan/Table/Live_Data/03.Character_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07893C85-98DF-4340-8647-C4564DDE844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CC03B1-B010-4EEF-A5AB-0D33BD9622C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B568FD5C-FFF8-4A33-933C-975EC4C3A8A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BD498840-7518-4165-9EDC-E3F04FD2A65E}"/>
   </bookViews>
   <sheets>
     <sheet name="03.Character_table" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA873F-B343-4E83-B77F-D0B6D326CA67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65CCB8C-9BF0-4C01-A2E1-F1945D5E15E9}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -617,7 +617,7 @@
         <v>150</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>150</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>150</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>150</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>150</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>150</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>150</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>150</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>150</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>150</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>150</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>150</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>150</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>150</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>150</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>150</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P17">
         <v>0</v>

--- a/Plan/Table/Live_Data/03.Character_table.xlsx
+++ b/Plan/Table/Live_Data/03.Character_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CC03B1-B010-4EEF-A5AB-0D33BD9622C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61A4E01-8243-42A9-A7D5-6E9496E01626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BD498840-7518-4165-9EDC-E3F04FD2A65E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F3A7A1BF-2E8A-4AEC-8D97-2B37019257EF}"/>
   </bookViews>
   <sheets>
     <sheet name="03.Character_table" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65CCB8C-9BF0-4C01-A2E1-F1945D5E15E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF378DCA-0BF9-4995-8595-C9C997FC1EB4}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1170,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1244,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1318,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1392,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1466,7 +1466,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1540,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1614,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1688,7 +1688,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>2</v>

--- a/Plan/Table/Live_Data/03.Character_table.xlsx
+++ b/Plan/Table/Live_Data/03.Character_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61A4E01-8243-42A9-A7D5-6E9496E01626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{353DFC6D-F56A-48F9-B28B-B6E0B3DDEF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F3A7A1BF-2E8A-4AEC-8D97-2B37019257EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BDC873BD-7B65-4487-AEE1-7ACCE128B8D2}"/>
   </bookViews>
   <sheets>
     <sheet name="03.Character_table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>start_trait_group</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -490,16 +493,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF378DCA-0BF9-4995-8595-C9C997FC1EB4}">
-  <dimension ref="A1:X17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87629400-3599-4C79-8B82-F9C4EA1DEC29}">
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1048576"/>
+      <selection sqref="A1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +575,11 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -646,8 +652,11 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -720,8 +729,11 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -794,8 +806,11 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -868,8 +883,11 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -942,8 +960,11 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1016,8 +1037,11 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1090,8 +1114,11 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1164,8 +1191,11 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1238,8 +1268,11 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1312,8 +1345,11 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1460,8 +1499,11 @@
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1534,8 +1576,11 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1608,8 +1653,11 @@
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1682,8 +1730,11 @@
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1755,6 +1806,394 @@
       </c>
       <c r="X17">
         <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>110</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>150</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>100</v>
+      </c>
+      <c r="V18">
+        <v>100</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>150</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>100</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>100</v>
+      </c>
+      <c r="V19">
+        <v>100</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>150</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>150</v>
+      </c>
+      <c r="R20">
+        <v>100</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>100</v>
+      </c>
+      <c r="V20">
+        <v>100</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>70</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>150</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>150</v>
+      </c>
+      <c r="V21">
+        <v>100</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>150</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>100</v>
+      </c>
+      <c r="V22">
+        <v>100</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
